--- a/biology/Biologie cellulaire et moléculaire/Liste_d'organismes_de_recherche_en_génétique/Liste_d'organismes_de_recherche_en_génétique.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Liste_d'organismes_de_recherche_en_génétique/Liste_d'organismes_de_recherche_en_génétique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_d%27organismes_de_recherche_en_g%C3%A9n%C3%A9tique</t>
+          <t>Liste_d'organismes_de_recherche_en_génétique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Voici une liste d'organismes impliqués dans la recherche en génétique ou d'activités connexes.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_d%27organismes_de_recherche_en_g%C3%A9n%C3%A9tique</t>
+          <t>Liste_d'organismes_de_recherche_en_génétique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Entreprises</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Affymetrix, Royaume-Uni
 Amgen, États-Unis
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_d%27organismes_de_recherche_en_g%C3%A9n%C3%A9tique</t>
+          <t>Liste_d'organismes_de_recherche_en_génétique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,11 +565,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Afrique
-Kenya
-Institut international de recherche sur l’élevage (ILRI), Nairobi
-Amérique
-Canada 
+          <t>Afrique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Kenya
+Institut international de recherche sur l’élevage (ILRI), Nairobi</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_d'organismes_de_recherche_en_génétique</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27organismes_de_recherche_en_g%C3%A9n%C3%A9tique</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Instituts de recherche</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Amérique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Canada 
 Centre de génomique et politiques (CGP), Montréal
 Centre canadien de génomique appliquée (en), Toronto
 États-Unis
@@ -577,9 +630,43 @@
 Cold Spring Harbor Laboratory, New York
 New York Genome Center (en), New York
 États-Unis (organismes fédéraux)
-Institut américain national de recherche sur le génome humain
-Asie/Pacifique
-Australie
+Institut américain national de recherche sur le génome humain</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_d'organismes_de_recherche_en_génétique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27organismes_de_recherche_en_g%C3%A9n%C3%A9tique</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Instituts de recherche</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Asie/Pacifique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Australie
 Commonwealth Scientific and Industrial Research Organisation
 Chine
 Beijing Genomics Institute
@@ -595,31 +682,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Liste_d%27organismes_de_recherche_en_g%C3%A9n%C3%A9tique</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_d'organismes_de_recherche_en_génétique</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Liste_d%27organismes_de_recherche_en_g%C3%A9n%C3%A9tique</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Allemagne
 Institut Max-Planck de génétique moléculaire Berlin
@@ -632,31 +721,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Liste_d%27organismes_de_recherche_en_g%C3%A9n%C3%A9tique</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_d'organismes_de_recherche_en_génétique</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Liste_d%27organismes_de_recherche_en_g%C3%A9n%C3%A9tique</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Organismes de surveillance de la recherche en génétique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Council for Responsible Genetics (en), États-Unis</t>
         </is>
